--- a/addressbook_testing/groups.xlsx
+++ b/addressbook_testing/groups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\alexanderKo1\ReposTesting\addressbook_testing\addressbook_testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\alexanderKo1\ReposTesting\addressbook_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB74C9B-CBCC-476C-8ECE-821EFAC159EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935DE82C-25B0-4208-B8E0-1DFA3A9309A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9360" xr2:uid="{BD640926-BB75-4E33-85EC-647FD1D2A6A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BD640926-BB75-4E33-85EC-647FD1D2A6A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
